--- a/tests/resource/006/test.xlsx
+++ b/tests/resource/006/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC30C5C-0057-4A2A-B234-2C4E3266F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333CE75-14EF-40A4-897A-CD194FC00501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -497,9 +497,6 @@
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -570,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C8D450-DFFB-48C6-A4A4-B8E4DB5B1D35}">
   <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
